--- a/inputs/NG_Roles_AAT.xlsx
+++ b/inputs/NG_Roles_AAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orla.delaney\Documents\Code\python_scripts\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31014170-90E8-4582-983D-4DA8DA90B35E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BBC2B1-C767-4425-B9AE-3651853D06A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="AAT_Roles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>NG Field</t>
   </si>
@@ -118,16 +119,79 @@
   </si>
   <si>
     <t>aat:300025190</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>aat:300025788</t>
+  </si>
+  <si>
+    <t>scientists</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>aat:300025902</t>
+  </si>
+  <si>
+    <t>interns</t>
+  </si>
+  <si>
+    <t>Chemical-technical assistant</t>
+  </si>
+  <si>
+    <t>aat:300025898</t>
+  </si>
+  <si>
+    <t>assistants</t>
+  </si>
+  <si>
+    <t>Conservator</t>
+  </si>
+  <si>
+    <t>aat:300102842</t>
+  </si>
+  <si>
+    <t>conservators (people in conservation)</t>
+  </si>
+  <si>
+    <t>Art historian</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Prof. Dr.</t>
+  </si>
+  <si>
+    <t>aat:300025541</t>
+  </si>
+  <si>
+    <t>art historians</t>
+  </si>
+  <si>
+    <t>aat:300025533</t>
+  </si>
+  <si>
+    <t>professors (teachers)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -563,7 +627,85 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>